--- a/Data/Table/Text2.xlsx
+++ b/Data/Table/Text2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ExcelBuilder\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD29E02-C30D-4695-A21A-0E4B694B0649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A37F13-5056-4D7B-87D4-566571BB0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2235" windowWidth="25620" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>float</t>
     <phoneticPr fontId="1"/>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -125,12 +121,40 @@
     <t>Float1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,33</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22,33</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +184,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,13 +212,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,60 +543,48 @@
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:42">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,38 +616,38 @@
         <v>12</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AT2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -651,25 +671,25 @@
         <v>2221</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3">
-        <v>22</v>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="V3">
-        <v>33</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>11</v>
+        <v>3.1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>3.1</v>
@@ -677,43 +697,31 @@
       <c r="AA3">
         <v>1</v>
       </c>
-      <c r="AD3">
-        <v>3.1</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
+      <c r="AB3">
         <v>3.1110000000000002</v>
       </c>
-      <c r="AG3">
+      <c r="AC3">
         <v>2221</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AI3" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3">
-        <v>3</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP3">
-        <v>22</v>
-      </c>
-      <c r="AQ3">
-        <v>33</v>
-      </c>
-      <c r="AT3">
         <v>1.234</v>
       </c>
-      <c r="AV3">
+      <c r="AN3">
         <v>1.22</v>
       </c>
-      <c r="AW3">
+      <c r="AO3">
         <v>11</v>
       </c>
     </row>
